--- a/data/trans_camb/P9_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_4-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,47</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,81</t>
+          <t>-6,61; 4,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,14</t>
+          <t>-2,39; 3,7</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,44</t>
+          <t>-0,54; 0,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,37</t>
+          <t>-0,29; 0,54</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>7,52%</t>
         </is>
       </c>
     </row>
@@ -1212,6 +1212,13 @@
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_4-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,151 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +715,151 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr"/>
+      <c r="D23" s="5" t="inlineStr"/>
+      <c r="E23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; 4,43</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 3,7</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr"/>
+      <c r="D25" s="6" t="inlineStr"/>
+      <c r="E25" s="6" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,76%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +867,249 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 0,88</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 0,54</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr"/>
+      <c r="D29" s="5" t="inlineStr"/>
+      <c r="E29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr"/>
+      <c r="D30" s="5" t="inlineStr"/>
+      <c r="E30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr"/>
+      <c r="D31" s="6" t="inlineStr"/>
+      <c r="E31" s="6" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
+      <c r="E32" s="6" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.03231661666511648</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-0.004969398096025396</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr"/>
+      <c r="D35" s="5" t="n">
+        <v>-4.441885831094766</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-3.586579742099598</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr"/>
+      <c r="D36" s="5" t="n">
+        <v>6.745168356290966</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>2.387035953326562</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr"/>
+      <c r="D37" s="6" t="n">
+        <v>0.01489486172687026</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.00422161993268814</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="inlineStr"/>
+      <c r="E38" s="6" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
+      <c r="E39" s="6" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.002162215297004007</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.001752366021343555</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr"/>
+      <c r="D41" s="5" t="n">
+        <v>-0.81909791403189</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-0.4336526540755207</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr"/>
+      <c r="D42" s="5" t="n">
+        <v>0.7775647437665097</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.2906957748075158</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr"/>
+      <c r="D43" s="6" t="n">
+        <v>-0.008083229103339582</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.01225097946486779</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr"/>
+      <c r="D44" s="6" t="inlineStr"/>
+      <c r="E44" s="6" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr"/>
+      <c r="D45" s="6" t="inlineStr"/>
+      <c r="E45" s="6" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1117,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
